--- a/docentes/Sánchez Sánchez Miguel - Estadisticos 2020.xlsx
+++ b/docentes/Sánchez Sánchez Miguel - Estadisticos 2020.xlsx
@@ -856,7 +856,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -879,7 +879,7 @@
         <v>13</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Sánchez Sánchez Miguel - Estadisticos 2020.xlsx
+++ b/docentes/Sánchez Sánchez Miguel - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
   <si>
     <t>Mat</t>
   </si>
@@ -79,22 +79,31 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>LIBONATTI</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>FIGUEROA</t>
-  </si>
-  <si>
-    <t>JESUS MANUEL</t>
-  </si>
-  <si>
-    <t>EBERTH JUVIEL</t>
+    <t>ZUÑIGA</t>
+  </si>
+  <si>
+    <t>CANO</t>
+  </si>
+  <si>
+    <t>OCHOA</t>
+  </si>
+  <si>
+    <t>ROBLES</t>
+  </si>
+  <si>
+    <t>ORTEGA</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>MARITZA</t>
+  </si>
+  <si>
+    <t>OMAR</t>
+  </si>
+  <si>
+    <t>OSCAR URIEL</t>
   </si>
 </sst>
 </file>
@@ -803,7 +812,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -838,16 +847,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920332</v>
+        <v>17330051920076</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -861,25 +870,48 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18330051920125</v>
+        <v>17330051920369</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>17330051920176</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Sánchez Sánchez Miguel - Estadisticos 2020.xlsx
+++ b/docentes/Sánchez Sánchez Miguel - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
   <si>
     <t>Mat</t>
   </si>
@@ -82,28 +82,10 @@
     <t>ZUÑIGA</t>
   </si>
   <si>
-    <t>CANO</t>
-  </si>
-  <si>
-    <t>OCHOA</t>
-  </si>
-  <si>
     <t>ROBLES</t>
   </si>
   <si>
-    <t>ORTEGA</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
     <t>MARITZA</t>
-  </si>
-  <si>
-    <t>OMAR</t>
-  </si>
-  <si>
-    <t>OSCAR URIEL</t>
   </si>
 </sst>
 </file>
@@ -507,19 +489,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G2">
-        <v>64.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>8.6</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -533,19 +515,19 @@
         <v>36</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>75</v>
+        <v>83.33</v>
       </c>
       <c r="H3">
-        <v>9.300000000000001</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -559,10 +541,10 @@
         <v>21</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>7</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
       </c>
       <c r="F4">
         <v>14</v>
@@ -571,7 +553,7 @@
         <v>66.67</v>
       </c>
       <c r="H4">
-        <v>7.9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -627,16 +609,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>69.23</v>
+      </c>
+      <c r="H2">
+        <v>7.7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -650,16 +635,19 @@
         <v>36</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>86.11</v>
+      </c>
+      <c r="H3">
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -673,16 +661,19 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>71.43000000000001</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -738,19 +729,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G2">
-        <v>64.09999999999999</v>
+        <v>69.23</v>
       </c>
       <c r="H2">
-        <v>8.6</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -764,19 +755,19 @@
         <v>36</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G3">
-        <v>75</v>
+        <v>86.11</v>
       </c>
       <c r="H3">
-        <v>9.300000000000001</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -790,19 +781,19 @@
         <v>21</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="H4">
         <v>7</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>14</v>
-      </c>
-      <c r="G4">
-        <v>66.67</v>
-      </c>
-      <c r="H4">
-        <v>7.9</v>
       </c>
     </row>
   </sheetData>
@@ -812,7 +803,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -853,10 +844,10 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -865,52 +856,6 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>17330051920369</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>17330051920176</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4">
         <v>1</v>
       </c>
     </row>
